--- a/BCA_marks.xlsx
+++ b/BCA_marks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harsh\Desktop\Marks Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harsh\Desktop\Data Science Projects\BCA Result Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D497703-01B1-4FC4-9D82-B2DA9333BED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF2ECC8-99C6-4BC4-B9A7-D3818FABEA97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{3D304A6A-6174-4E9A-A688-5240F0EA1988}"/>
   </bookViews>
@@ -711,7 +711,7 @@
   <dimension ref="A1:G76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -768,7 +768,7 @@
         <v>7.3630000000000004</v>
       </c>
       <c r="G2" s="3">
-        <v>6.923</v>
+        <v>7.077</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -791,7 +791,7 @@
         <v>4.9089999999999998</v>
       </c>
       <c r="G3" s="3">
-        <v>6.6920000000000002</v>
+        <v>6.8460000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -814,7 +814,7 @@
         <v>7.4089999999999998</v>
       </c>
       <c r="G4" s="3">
-        <v>6.923</v>
+        <v>7.077</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -837,7 +837,7 @@
         <v>6.5449999999999999</v>
       </c>
       <c r="G5" s="3">
-        <v>6.923</v>
+        <v>7.077</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -860,7 +860,7 @@
         <v>6.3630000000000004</v>
       </c>
       <c r="G6" s="3">
-        <v>6.923</v>
+        <v>7.077</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -883,7 +883,7 @@
         <v>6.4089999999999998</v>
       </c>
       <c r="G7" s="3">
-        <v>6.923</v>
+        <v>7.077</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -906,7 +906,7 @@
         <v>7.59</v>
       </c>
       <c r="G8" s="3">
-        <v>7.1529999999999996</v>
+        <v>7.3070000000000004</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -929,7 +929,7 @@
         <v>6.7270000000000003</v>
       </c>
       <c r="G9" s="3">
-        <v>6.923</v>
+        <v>7.077</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -952,7 +952,7 @@
         <v>6.3179999999999996</v>
       </c>
       <c r="G10" s="3">
-        <v>6.923</v>
+        <v>7.077</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -975,7 +975,7 @@
         <v>7.5</v>
       </c>
       <c r="G11" s="3">
-        <v>7.3840000000000003</v>
+        <v>7.5380000000000003</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -998,7 +998,7 @@
         <v>7</v>
       </c>
       <c r="G12" s="3">
-        <v>6.923</v>
+        <v>7.077</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -1021,7 +1021,7 @@
         <v>7</v>
       </c>
       <c r="G13" s="3">
-        <v>6.6920000000000002</v>
+        <v>6.8460000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -1044,7 +1044,7 @@
         <v>6.681</v>
       </c>
       <c r="G14" s="3">
-        <v>6.923</v>
+        <v>7.077</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -1067,7 +1067,7 @@
         <v>6.681</v>
       </c>
       <c r="G15" s="3">
-        <v>6.23</v>
+        <v>6.3840000000000003</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -1090,7 +1090,7 @@
         <v>6.5449999999999999</v>
       </c>
       <c r="G16" s="3">
-        <v>6.6920000000000002</v>
+        <v>6.8460000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -1113,7 +1113,7 @@
         <v>5.09</v>
       </c>
       <c r="G17" s="3">
-        <v>3.4609999999999999</v>
+        <v>3.6150000000000002</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -1136,7 +1136,7 @@
         <v>7.1360000000000001</v>
       </c>
       <c r="G18" s="3">
-        <v>5.7690000000000001</v>
+        <v>5.923</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1159,7 +1159,7 @@
         <v>5.7270000000000003</v>
       </c>
       <c r="G19" s="3">
-        <v>6</v>
+        <v>6.1539999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -1182,7 +1182,7 @@
         <v>7.0449999999999999</v>
       </c>
       <c r="G20" s="3">
-        <v>6.923</v>
+        <v>7.077</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -1205,7 +1205,7 @@
         <v>6.9539999999999997</v>
       </c>
       <c r="G21" s="3">
-        <v>6.6920000000000002</v>
+        <v>6.8460000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -1228,7 +1228,7 @@
         <v>7.2720000000000002</v>
       </c>
       <c r="G22" s="3">
-        <v>7.3840000000000003</v>
+        <v>7.5380000000000003</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
@@ -1251,7 +1251,7 @@
         <v>7.09</v>
       </c>
       <c r="G23" s="3">
-        <v>6.923</v>
+        <v>7.077</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1274,7 +1274,7 @@
         <v>6.8630000000000004</v>
       </c>
       <c r="G24" s="3">
-        <v>6.923</v>
+        <v>7.077</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1297,7 +1297,7 @@
         <v>6.8179999999999996</v>
       </c>
       <c r="G25" s="3">
-        <v>7.1529999999999996</v>
+        <v>7.3070000000000004</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -1320,7 +1320,7 @@
         <v>7.5449999999999999</v>
       </c>
       <c r="G26" s="3">
-        <v>6.6920000000000002</v>
+        <v>6.8460000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -1343,7 +1343,7 @@
         <v>6.3179999999999996</v>
       </c>
       <c r="G27" s="3">
-        <v>6.923</v>
+        <v>7.077</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -1366,7 +1366,7 @@
         <v>7.8179999999999996</v>
       </c>
       <c r="G28" s="3">
-        <v>7.1529999999999996</v>
+        <v>7.3070000000000004</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -1389,7 +1389,7 @@
         <v>7.5</v>
       </c>
       <c r="G29" s="3">
-        <v>6.23</v>
+        <v>6.3840000000000003</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
@@ -1412,7 +1412,7 @@
         <v>7.3179999999999996</v>
       </c>
       <c r="G30" s="3">
-        <v>6.923</v>
+        <v>7.077</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -1435,7 +1435,7 @@
         <v>7.8630000000000004</v>
       </c>
       <c r="G31" s="3">
-        <v>7.3840000000000003</v>
+        <v>7.5380000000000003</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
@@ -1458,7 +1458,7 @@
         <v>8.3629999999999995</v>
       </c>
       <c r="G32" s="3">
-        <v>7.1529999999999996</v>
+        <v>7.3070000000000004</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -1481,7 +1481,7 @@
         <v>7.681</v>
       </c>
       <c r="G33" s="3">
-        <v>6.4610000000000003</v>
+        <v>6.6150000000000002</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -1504,7 +1504,7 @@
         <v>7.181</v>
       </c>
       <c r="G34" s="3">
-        <v>6.923</v>
+        <v>7.077</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -1527,7 +1527,7 @@
         <v>6.6360000000000001</v>
       </c>
       <c r="G35" s="3">
-        <v>3.923</v>
+        <v>4.077</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
@@ -1550,7 +1550,7 @@
         <v>8.4540000000000006</v>
       </c>
       <c r="G36" s="3">
-        <v>7.1529999999999996</v>
+        <v>7.3070000000000004</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1573,7 +1573,7 @@
         <v>7.4539999999999997</v>
       </c>
       <c r="G37" s="3">
-        <v>7.1529999999999996</v>
+        <v>7.3070000000000004</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
@@ -1596,7 +1596,7 @@
         <v>7.8630000000000004</v>
       </c>
       <c r="G38" s="3">
-        <v>7.8460000000000001</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1619,7 +1619,7 @@
         <v>5.3179999999999996</v>
       </c>
       <c r="G39" s="3">
-        <v>7.1529999999999996</v>
+        <v>7.3070000000000004</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
@@ -1642,7 +1642,7 @@
         <v>7.0449999999999999</v>
       </c>
       <c r="G40" s="3">
-        <v>6.4610000000000003</v>
+        <v>6.6150000000000002</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -1665,7 +1665,7 @@
         <v>5</v>
       </c>
       <c r="G41" s="3">
-        <v>4.6150000000000002</v>
+        <v>4.7690000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -1688,7 +1688,7 @@
         <v>6.3630000000000004</v>
       </c>
       <c r="G42" s="3">
-        <v>7.1529999999999996</v>
+        <v>7.3070000000000004</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -1711,7 +1711,7 @@
         <v>6.2270000000000003</v>
       </c>
       <c r="G43" s="3">
-        <v>6.6920000000000002</v>
+        <v>6.8460000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
@@ -1734,7 +1734,7 @@
         <v>7.0449999999999999</v>
       </c>
       <c r="G44" s="3">
-        <v>7.1529999999999996</v>
+        <v>7.3070000000000004</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
@@ -1757,7 +1757,7 @@
         <v>8.0449999999999999</v>
       </c>
       <c r="G45" s="3">
-        <v>7.8460000000000001</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
@@ -1780,7 +1780,7 @@
         <v>7.681</v>
       </c>
       <c r="G46" s="3">
-        <v>7.1529999999999996</v>
+        <v>7.3070000000000004</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
@@ -1803,7 +1803,7 @@
         <v>7.0449999999999999</v>
       </c>
       <c r="G47" s="3">
-        <v>7.1529999999999996</v>
+        <v>7.3070000000000004</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
@@ -1826,7 +1826,7 @@
         <v>7.181</v>
       </c>
       <c r="G48" s="3">
-        <v>6.923</v>
+        <v>7.077</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
@@ -1849,7 +1849,7 @@
         <v>6.181</v>
       </c>
       <c r="G49" s="3">
-        <v>6.4610000000000003</v>
+        <v>6.6150000000000002</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
@@ -1872,7 +1872,7 @@
         <v>6.681</v>
       </c>
       <c r="G50" s="3">
-        <v>6.4610000000000003</v>
+        <v>6.6150000000000002</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
@@ -1895,7 +1895,7 @@
         <v>7.2720000000000002</v>
       </c>
       <c r="G51" s="3">
-        <v>6.923</v>
+        <v>7.077</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1918,7 +1918,7 @@
         <v>6.7720000000000002</v>
       </c>
       <c r="G52" s="3">
-        <v>7.3840000000000003</v>
+        <v>7.5380000000000003</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
@@ -1941,7 +1941,7 @@
         <v>7.0449999999999999</v>
       </c>
       <c r="G53" s="3">
-        <v>6.4610000000000003</v>
+        <v>6.6150000000000002</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
@@ -1964,7 +1964,7 @@
         <v>7.3179999999999996</v>
       </c>
       <c r="G54" s="3">
-        <v>6.923</v>
+        <v>7.077</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
@@ -1987,7 +1987,7 @@
         <v>6.681</v>
       </c>
       <c r="G55" s="3">
-        <v>6.6920000000000002</v>
+        <v>6.8460000000000001</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
@@ -2010,7 +2010,7 @@
         <v>7.3179999999999996</v>
       </c>
       <c r="G56" s="3">
-        <v>7.3840000000000003</v>
+        <v>7.5380000000000003</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
@@ -2033,7 +2033,7 @@
         <v>7</v>
       </c>
       <c r="G57" s="3">
-        <v>7.3840000000000003</v>
+        <v>7.5380000000000003</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -2056,7 +2056,7 @@
         <v>7.5</v>
       </c>
       <c r="G58" s="3">
-        <v>7.1529999999999996</v>
+        <v>7.3070000000000004</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
@@ -2079,7 +2079,7 @@
         <v>8.3179999999999996</v>
       </c>
       <c r="G59" s="3">
-        <v>7.3840000000000003</v>
+        <v>7.5380000000000003</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -2102,7 +2102,7 @@
         <v>6.6360000000000001</v>
       </c>
       <c r="G60" s="3">
-        <v>6</v>
+        <v>6.1539999999999999</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -2125,7 +2125,7 @@
         <v>7.3179999999999996</v>
       </c>
       <c r="G61" s="3">
-        <v>6.923</v>
+        <v>7.077</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
@@ -2148,7 +2148,7 @@
         <v>7.1360000000000001</v>
       </c>
       <c r="G62" s="3">
-        <v>6.923</v>
+        <v>7.077</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
@@ -2171,7 +2171,7 @@
         <v>7</v>
       </c>
       <c r="G63" s="3">
-        <v>6.923</v>
+        <v>7.077</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
@@ -2194,7 +2194,7 @@
         <v>6.1360000000000001</v>
       </c>
       <c r="G64" s="3">
-        <v>6.6920000000000002</v>
+        <v>6.8460000000000001</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
@@ -2217,7 +2217,7 @@
         <v>4.9089999999999998</v>
       </c>
       <c r="G65" s="3">
-        <v>3.923</v>
+        <v>4.077</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
@@ -2240,7 +2240,7 @@
         <v>6.681</v>
       </c>
       <c r="G66" s="3">
-        <v>6.6920000000000002</v>
+        <v>6.8460000000000001</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
@@ -2263,7 +2263,7 @@
         <v>6.5449999999999999</v>
       </c>
       <c r="G67" s="3">
-        <v>6.923</v>
+        <v>7.077</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -2286,7 +2286,7 @@
         <v>7.681</v>
       </c>
       <c r="G68" s="3">
-        <v>6.6920000000000002</v>
+        <v>6.8460000000000001</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -2309,7 +2309,7 @@
         <v>7.9539999999999997</v>
       </c>
       <c r="G69" s="3">
-        <v>7.1529999999999996</v>
+        <v>7.3070000000000004</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
@@ -2332,7 +2332,7 @@
         <v>6.8179999999999996</v>
       </c>
       <c r="G70" s="3">
-        <v>7.1529999999999996</v>
+        <v>7.3070000000000004</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
@@ -2355,7 +2355,7 @@
         <v>7.0449999999999999</v>
       </c>
       <c r="G71" s="3">
-        <v>6.6920000000000002</v>
+        <v>6.8460000000000001</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2378,7 +2378,7 @@
         <v>7.5</v>
       </c>
       <c r="G72" s="3">
-        <v>7.6150000000000002</v>
+        <v>7.7690000000000001</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
@@ -2401,7 +2401,7 @@
         <v>7.3630000000000004</v>
       </c>
       <c r="G73" s="3">
-        <v>6.923</v>
+        <v>7.077</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
@@ -2424,7 +2424,7 @@
         <v>6.181</v>
       </c>
       <c r="G74" s="3">
-        <v>7.1529999999999996</v>
+        <v>7.3070000000000004</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
@@ -2447,7 +2447,7 @@
         <v>8</v>
       </c>
       <c r="G75" s="3">
-        <v>7.6150000000000002</v>
+        <v>7.7690000000000001</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.35">
@@ -2470,7 +2470,7 @@
         <v>6.8630000000000004</v>
       </c>
       <c r="G76" s="3">
-        <v>6.6920000000000002</v>
+        <v>6.8460000000000001</v>
       </c>
     </row>
   </sheetData>
